--- a/regressionSummaries/regression_summaries.xlsx
+++ b/regressionSummaries/regression_summaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sczwa\Desktop\shinycrab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sczwa\Desktop\shinycrab\regressionSummaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B56AC5-DF8E-4F05-8964-F533356AE867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8E8053-F95F-445C-8591-35241CCA8F9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="10" xr2:uid="{92501DCD-C878-4E1C-B363-916EF62D2436}"/>
+    <workbookView xWindow="20370" yWindow="-4095" windowWidth="24240" windowHeight="13140" firstSheet="6" activeTab="6" xr2:uid="{92501DCD-C878-4E1C-B363-916EF62D2436}"/>
   </bookViews>
   <sheets>
     <sheet name="E98" sheetId="2" r:id="rId1"/>
@@ -2453,7 +2453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D18C0B-7C56-4AD9-89EB-B076C8DB8250}">
   <dimension ref="A1:K229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
@@ -18625,8 +18625,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19284,22 +19284,22 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>7.0430000000000004E-4</v>
+        <v>3.1879999999999999E-2</v>
       </c>
       <c r="E33">
-        <v>0.27610000000000001</v>
+        <v>0.30759999999999998</v>
       </c>
       <c r="F33">
-        <v>0.25600000000000001</v>
+        <v>0.25440000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19327,19 +19327,19 @@
         <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>3.1879999999999999E-2</v>
+        <v>3.236E-2</v>
       </c>
       <c r="E35">
-        <v>0.30759999999999998</v>
+        <v>0.30620000000000003</v>
       </c>
       <c r="F35">
-        <v>0.25440000000000002</v>
+        <v>0.25290000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19364,22 +19364,22 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>3.236E-2</v>
+        <v>4.9779999999999998E-2</v>
       </c>
       <c r="E37">
-        <v>0.30620000000000003</v>
+        <v>0.28389999999999999</v>
       </c>
       <c r="F37">
-        <v>0.25290000000000001</v>
+        <v>0.22420000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19404,22 +19404,22 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>1.0219999999999999E-3</v>
+        <v>4.1009999999999998E-2</v>
       </c>
       <c r="E39">
-        <v>0.26200000000000001</v>
+        <v>0.28349999999999997</v>
       </c>
       <c r="F39">
-        <v>0.24149999999999999</v>
+        <v>0.22839999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19487,19 +19487,19 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>4.1009999999999998E-2</v>
+        <v>4.1669999999999999E-2</v>
       </c>
       <c r="E43">
-        <v>0.28349999999999997</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="F43">
-        <v>0.22839999999999999</v>
+        <v>0.22670000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -19510,16 +19510,16 @@
         <v>111</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>1.2700000000000001E-3</v>
+        <v>7.0430000000000004E-4</v>
       </c>
       <c r="E44">
-        <v>0.2475</v>
+        <v>0.27610000000000001</v>
       </c>
       <c r="F44">
-        <v>0.22720000000000001</v>
+        <v>0.25600000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19564,7 +19564,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
         <v>36</v>
@@ -19573,13 +19573,13 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>4.1669999999999999E-2</v>
+        <v>1.0219999999999999E-3</v>
       </c>
       <c r="E47">
-        <v>0.28199999999999997</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="F47">
-        <v>0.22670000000000001</v>
+        <v>0.24149999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19607,19 +19607,19 @@
         <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>4.9779999999999998E-2</v>
+        <v>1.2700000000000001E-3</v>
       </c>
       <c r="E49">
-        <v>0.28389999999999999</v>
+        <v>0.2475</v>
       </c>
       <c r="F49">
-        <v>0.22420000000000001</v>
+        <v>0.22720000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -20167,19 +20167,19 @@
         <v>34</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>1.0999999999999999E-2</v>
+        <v>3.5249999999999997E-2</v>
       </c>
       <c r="E77">
-        <v>0.1623</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="F77">
-        <v>0.13969999999999999</v>
+        <v>9.2850000000000002E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -20207,19 +20207,19 @@
         <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>1.546E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E79">
-        <v>0.1484</v>
+        <v>0.1623</v>
       </c>
       <c r="F79">
-        <v>0.12540000000000001</v>
+        <v>0.13969999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -20247,19 +20247,19 @@
         <v>34</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>2.605E-2</v>
+        <v>1.546E-2</v>
       </c>
       <c r="E81">
-        <v>0.13370000000000001</v>
+        <v>0.1484</v>
       </c>
       <c r="F81">
-        <v>0.1089</v>
+        <v>0.12540000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -20447,19 +20447,19 @@
         <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91">
-        <v>3.5249999999999997E-2</v>
+        <v>2.605E-2</v>
       </c>
       <c r="E91">
-        <v>0.17399999999999999</v>
+        <v>0.13370000000000001</v>
       </c>
       <c r="F91">
-        <v>9.2850000000000002E-2</v>
+        <v>0.1089</v>
       </c>
     </row>
     <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -20850,8 +20850,8 @@
         <filter val="MeanLandingsCPUE"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H110">
-      <sortCondition descending="1" ref="F2:F110"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H110">
+      <sortCondition descending="1" ref="E2:E110"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H110">
